--- a/Simulation/validation_dy_te_le_hinge.xlsx
+++ b/Simulation/validation_dy_te_le_hinge.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TE_DY_ALONGX" sheetId="1" r:id="rId1"/>
@@ -358,7 +358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3578,7 +3578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>

--- a/Simulation/validation_dy_te_le_hinge.xlsx
+++ b/Simulation/validation_dy_te_le_hinge.xlsx
@@ -3579,7 +3579,7 @@
   <dimension ref="A1:D1131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
